--- a/17._Analise_dos_Eventos_para_cada_Cenario.xlsx
+++ b/17._Analise_dos_Eventos_para_cada_Cenario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gon\Desktop\Vitor\Repositórios\ProjetoOPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABD327E-4A23-4A8F-94F0-8D403C01A874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A95C92F-023A-46A3-8979-6C22B05D50E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5953858B-6221-4F47-BB01-3CD665B20015}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
   <si>
     <t>N°</t>
   </si>
@@ -81,15 +81,9 @@
     <t>x(2)</t>
   </si>
   <si>
-    <t>Cliente não realizou pedido</t>
-  </si>
-  <si>
     <t>x(3)</t>
   </si>
   <si>
-    <t>Preparar Pedido</t>
-  </si>
-  <si>
     <t>Previsível *</t>
   </si>
   <si>
@@ -108,12 +102,6 @@
     <t>Receber pagamento em cartão</t>
   </si>
   <si>
-    <t>x(6,7)</t>
-  </si>
-  <si>
-    <t>Cliente socilita conta</t>
-  </si>
-  <si>
     <t>x(9)</t>
   </si>
   <si>
@@ -153,21 +141,12 @@
     <t>Cozinha entrega pedido e comanda para o salão</t>
   </si>
   <si>
-    <t>Entregar pedido para o cliente</t>
-  </si>
-  <si>
-    <t>Entregar pedido para o salão</t>
-  </si>
-  <si>
     <t>Cliente recebe pedido</t>
   </si>
   <si>
     <t>x(8)</t>
   </si>
   <si>
-    <t>Cliente cancela pedido</t>
-  </si>
-  <si>
     <t>Cliente recebe da retorno da operação</t>
   </si>
   <si>
@@ -177,28 +156,49 @@
     <t xml:space="preserve">Cliente solicita cancelamento </t>
   </si>
   <si>
-    <t>x(12)</t>
-  </si>
-  <si>
     <t>Cliente realiza pagamento em dinheiro</t>
   </si>
   <si>
-    <t>Cliente não valida pedido</t>
-  </si>
-  <si>
     <t>Cliente realiza pagamento</t>
   </si>
   <si>
     <t>Caixa recebe pagamento do motoboy</t>
   </si>
   <si>
-    <t>Caixa cancela pedido</t>
-  </si>
-  <si>
     <t>Caixa realiza pedido</t>
   </si>
   <si>
-    <t>Fornecedor recebe confirmação do pedido</t>
+    <t>Preparar e Entregar Pedido</t>
+  </si>
+  <si>
+    <t>Entregar pedido para cliente</t>
+  </si>
+  <si>
+    <t>Cliente socilita pagamento</t>
+  </si>
+  <si>
+    <t>x(7)</t>
+  </si>
+  <si>
+    <t>Caixa verifica produtos</t>
+  </si>
+  <si>
+    <t>Caixa solicita orçamento</t>
+  </si>
+  <si>
+    <t>Caixa recebe orçamento</t>
+  </si>
+  <si>
+    <t>Receber pedido</t>
+  </si>
+  <si>
+    <t>Caixa repoe estoque</t>
+  </si>
+  <si>
+    <t>x(4)</t>
+  </si>
+  <si>
+    <t>x(5)</t>
   </si>
 </sst>
 </file>
@@ -208,7 +208,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,14 +233,20 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,12 +285,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -303,12 +303,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -368,126 +368,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,16 +588,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>2257425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -535,8 +613,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12915900" y="628650"/>
-          <a:ext cx="2085975" cy="1047750"/>
+          <a:off x="10887075" y="619125"/>
+          <a:ext cx="2085975" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -593,16 +671,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>400051</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>2257425</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -618,8 +696,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13182600" y="2114551"/>
-          <a:ext cx="2085975" cy="1028700"/>
+          <a:off x="10896600" y="1524000"/>
+          <a:ext cx="2085975" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -654,11 +732,6 @@
             <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
             <a:t> entregar</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -666,16 +739,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>2257425</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -691,8 +764,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13182600" y="3724275"/>
-          <a:ext cx="2085975" cy="1076325"/>
+          <a:off x="10915650" y="2619375"/>
+          <a:ext cx="2085975" cy="628649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -746,16 +819,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -771,7 +844,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11725275" y="514350"/>
+          <a:off x="9115425" y="466725"/>
           <a:ext cx="2085975" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -819,16 +892,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>409575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>428625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -844,7 +917,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12039600" y="390525"/>
+          <a:off x="10077450" y="600075"/>
           <a:ext cx="2085975" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -892,16 +965,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -917,8 +990,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11125200" y="428625"/>
-          <a:ext cx="2085975" cy="1047750"/>
+          <a:off x="9286875" y="495300"/>
+          <a:ext cx="2085975" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1261,14 +1334,14 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="E8" sqref="E8:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
@@ -1289,400 +1362,383 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="24" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="15"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="H2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="15">
         <v>2</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="15">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="50">
+        <v>6</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="38">
+        <v>7</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-    </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="20">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="13" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="38">
+        <v>8</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+    </row>
+    <row r="15" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+    </row>
+    <row r="16" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="15">
+        <v>9</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="10">
         <v>10</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17" t="s">
+      <c r="D17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10">
         <v>11</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="20">
-        <v>2</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="D18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="38">
         <v>12</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="20">
-        <v>3</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="D19" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="20">
-        <v>4</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="20">
-        <v>5</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:16" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="16">
-        <v>6</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="32">
-        <v>7</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="23">
-        <v>8</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="23">
-        <v>9</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="20">
-        <v>10</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="15">
-        <v>11</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="15">
-        <v>12</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="23">
-        <v>13</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+    </row>
+    <row r="21" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
+      <c r="C22"/>
     </row>
     <row r="23" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23"/>
@@ -1693,57 +1749,54 @@
     <row r="25" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26"/>
-    </row>
+    <row r="26" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
+  <mergeCells count="45">
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I11:I13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1755,7 +1808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64440044-A8B1-4823-AAD4-43F2DAF86B2F}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1770,174 +1825,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="24" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="4"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="5">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="5">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
+    <mergeCell ref="A2:A7"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1960,153 +1998,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="24" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="4"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="6"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="5">
+      <c r="A6" s="27"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5">
-        <v>5</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
+      <c r="D6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2115,9 +2134,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70E27C8-662A-4FC4-A701-27CF4640B306}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2131,121 +2150,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="24" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="4"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="16">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="D4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="16">
+        <v>3</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="38">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="D7" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="9">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
+  <mergeCells count="14">
+    <mergeCell ref="J7:J13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="F7:F13"/>
+    <mergeCell ref="G7:G13"/>
+    <mergeCell ref="H7:H13"/>
+    <mergeCell ref="I7:I13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Cmc</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>